--- a/ct_subgroup.xlsx
+++ b/ct_subgroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17719755-2EF9-C944-BCB7-E7CC4C40C1A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBAB3E4-2396-1746-B526-2737E91D979B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - CT_performance_index_" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="213">
   <si>
     <t>District Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>District Code</t>
   </si>
   <si>
-    <t>High Needs (F/R, EL or SWD)</t>
-  </si>
-  <si>
     <t>ELACount</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>The Woodstock Academy District</t>
+  </si>
+  <si>
+    <t>Subgroup</t>
   </si>
 </sst>
 </file>
@@ -1946,8 +1946,8 @@
   </sheetPr>
   <dimension ref="A1:I398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1973,36 +1973,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>10011</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>27</v>
@@ -2019,19 +2019,17 @@
       <c r="H2" s="6">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>10011</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>71</v>
@@ -2048,19 +2046,17 @@
       <c r="H3" s="6">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
         <v>20011</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>830</v>
@@ -2083,13 +2079,13 @@
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>20011</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6">
         <v>314</v>
@@ -2112,13 +2108,13 @@
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>30011</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6">
         <v>117</v>
@@ -2141,13 +2137,13 @@
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>30011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>126</v>
@@ -2170,13 +2166,13 @@
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>40011</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6">
         <v>383</v>
@@ -2199,13 +2195,13 @@
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5">
         <v>40011</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>1301</v>
@@ -2228,13 +2224,13 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>50011</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6">
         <v>52</v>
@@ -2251,19 +2247,17 @@
       <c r="H10" s="6">
         <v>18</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>50011</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6">
         <v>77</v>
@@ -2280,19 +2274,17 @@
       <c r="H11" s="6">
         <v>16</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5">
         <v>70011</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6">
         <v>470</v>
@@ -2315,13 +2307,13 @@
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5">
         <v>70011</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6">
         <v>978</v>
@@ -2344,13 +2336,13 @@
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <v>80011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6">
         <v>61</v>
@@ -2367,19 +2359,17 @@
       <c r="H14" s="6">
         <v>15</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>80011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6">
         <v>144</v>
@@ -2402,13 +2392,13 @@
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>90011</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6">
         <v>638</v>
@@ -2431,13 +2421,13 @@
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5">
         <v>90011</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6">
         <v>1006</v>
@@ -2460,13 +2450,13 @@
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5">
         <v>110011</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="6">
         <v>641</v>
@@ -2489,13 +2479,13 @@
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>110011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>322</v>
@@ -2518,13 +2508,13 @@
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>120011</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="6">
         <v>126</v>
@@ -2547,13 +2537,13 @@
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>120011</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6">
         <v>278</v>
@@ -2576,13 +2566,13 @@
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>130011</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="6">
         <v>52</v>
@@ -2605,13 +2595,13 @@
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>130011</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="6">
         <v>70</v>
@@ -2634,13 +2624,13 @@
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>140011</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6">
         <v>616</v>
@@ -2663,13 +2653,13 @@
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5">
         <v>140011</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="6">
         <v>836</v>
@@ -2692,13 +2682,13 @@
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5">
         <v>150011</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="6">
         <v>8010</v>
@@ -2721,13 +2711,13 @@
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>150011</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6">
         <v>1752</v>
@@ -2750,13 +2740,13 @@
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>170011</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6">
         <v>2426</v>
@@ -2779,13 +2769,13 @@
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>170011</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6">
         <v>1628</v>
@@ -2808,13 +2798,13 @@
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5">
         <v>180011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="6">
         <v>437</v>
@@ -2837,13 +2827,13 @@
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5">
         <v>180011</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <v>892</v>
@@ -2866,13 +2856,13 @@
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5">
         <v>190011</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6">
         <v>238</v>
@@ -2895,13 +2885,13 @@
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5">
         <v>190011</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="6">
         <v>291</v>
@@ -2924,42 +2914,36 @@
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5">
         <v>210011</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="6">
         <v>13</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="6">
         <v>13</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="6">
         <v>6</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5">
         <v>210011</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6">
         <v>28</v>
@@ -2976,19 +2960,17 @@
       <c r="H35" s="6">
         <v>12</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="5">
         <v>220011</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="6">
         <v>113</v>
@@ -3011,13 +2993,13 @@
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="5">
         <v>220011</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6">
         <v>152</v>
@@ -3040,13 +3022,13 @@
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="5">
         <v>230011</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="6">
         <v>211</v>
@@ -3069,13 +3051,13 @@
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="5">
         <v>230011</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="6">
         <v>611</v>
@@ -3098,13 +3080,13 @@
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="5">
         <v>240011</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="6">
         <v>44</v>
@@ -3119,21 +3101,19 @@
         <v>69.400000000000006</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="5">
         <v>240011</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6">
         <v>37</v>
@@ -3148,21 +3128,19 @@
         <v>73.7</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="5">
         <v>250011</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6">
         <v>477</v>
@@ -3185,13 +3163,13 @@
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="5">
         <v>250011</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="6">
         <v>1682</v>
@@ -3214,13 +3192,13 @@
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="5">
         <v>260011</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="6">
         <v>41</v>
@@ -3237,19 +3215,17 @@
       <c r="H44" s="6">
         <v>9</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="5">
         <v>260011</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
         <v>61</v>
@@ -3266,19 +3242,17 @@
       <c r="H45" s="6">
         <v>15</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="5">
         <v>270011</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="6">
         <v>385</v>
@@ -3301,13 +3275,13 @@
     </row>
     <row r="47" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="5">
         <v>270011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="6">
         <v>536</v>
@@ -3330,13 +3304,13 @@
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="5">
         <v>280011</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="6">
         <v>374</v>
@@ -3359,13 +3333,13 @@
     </row>
     <row r="49" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="5">
         <v>280011</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="6">
         <v>788</v>
@@ -3388,13 +3362,13 @@
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="5">
         <v>290011</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="6">
         <v>21</v>
@@ -3409,21 +3383,19 @@
         <v>64.3</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="5">
         <v>290011</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="6">
         <v>28</v>
@@ -3438,21 +3410,19 @@
         <v>82.5</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="5">
         <v>300011</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="6">
         <v>72</v>
@@ -3475,13 +3445,13 @@
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="5">
         <v>300011</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="6">
         <v>169</v>
@@ -3504,42 +3474,36 @@
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="5">
         <v>310011</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="6">
         <v>18</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="6">
         <v>18</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="6">
         <v>7</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="5">
         <v>310011</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="6">
         <v>41</v>
@@ -3562,13 +3526,13 @@
     </row>
     <row r="56" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="5">
         <v>320011</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="6">
         <v>259</v>
@@ -3591,13 +3555,13 @@
     </row>
     <row r="57" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="5">
         <v>320011</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="6">
         <v>587</v>
@@ -3620,13 +3584,13 @@
     </row>
     <row r="58" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="5">
         <v>330011</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="6">
         <v>342</v>
@@ -3649,13 +3613,13 @@
     </row>
     <row r="59" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="5">
         <v>330011</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6">
         <v>705</v>
@@ -3678,13 +3642,13 @@
     </row>
     <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="5">
         <v>340011</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="6">
         <v>4115</v>
@@ -3707,13 +3671,13 @@
     </row>
     <row r="61" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="5">
         <v>340011</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="6">
         <v>1575</v>
@@ -3736,13 +3700,13 @@
     </row>
     <row r="62" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="5">
         <v>350011</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" s="6">
         <v>455</v>
@@ -3765,13 +3729,13 @@
     </row>
     <row r="63" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="5">
         <v>350011</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="6">
         <v>2074</v>
@@ -3794,13 +3758,13 @@
     </row>
     <row r="64" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="5">
         <v>360011</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="6">
         <v>67</v>
@@ -3817,19 +3781,17 @@
       <c r="H64" s="6">
         <v>15</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="5">
         <v>360011</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="6">
         <v>84</v>
@@ -3846,19 +3808,17 @@
       <c r="H65" s="6">
         <v>18</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="5">
         <v>370011</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="6">
         <v>482</v>
@@ -3881,13 +3841,13 @@
     </row>
     <row r="67" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="5">
         <v>370011</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="6">
         <v>223</v>
@@ -3910,13 +3870,13 @@
     </row>
     <row r="68" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="5">
         <v>390011</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="6">
         <v>41</v>
@@ -3933,19 +3893,17 @@
       <c r="H68" s="6">
         <v>12</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="5">
         <v>390011</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="6">
         <v>48</v>
@@ -3968,13 +3926,13 @@
     </row>
     <row r="70" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" s="5">
         <v>400011</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="6">
         <v>132</v>
@@ -3997,13 +3955,13 @@
     </row>
     <row r="71" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" s="5">
         <v>400011</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="6">
         <v>309</v>
@@ -4026,13 +3984,13 @@
     </row>
     <row r="72" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="5">
         <v>410011</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="6">
         <v>179</v>
@@ -4055,13 +4013,13 @@
     </row>
     <row r="73" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="5">
         <v>410011</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="6">
         <v>338</v>
@@ -4084,13 +4042,13 @@
     </row>
     <row r="74" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="5">
         <v>420011</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="6">
         <v>276</v>
@@ -4113,13 +4071,13 @@
     </row>
     <row r="75" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="5">
         <v>420011</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" s="6">
         <v>710</v>
@@ -4142,13 +4100,13 @@
     </row>
     <row r="76" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" s="5">
         <v>430011</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" s="6">
         <v>2316</v>
@@ -4171,13 +4129,13 @@
     </row>
     <row r="77" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" s="5">
         <v>430011</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="6">
         <v>911</v>
@@ -4200,13 +4158,13 @@
     </row>
     <row r="78" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="5">
         <v>440011</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="6">
         <v>926</v>
@@ -4229,13 +4187,13 @@
     </row>
     <row r="79" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="5">
         <v>440011</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" s="6">
         <v>461</v>
@@ -4258,13 +4216,13 @@
     </row>
     <row r="80" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80" s="5">
         <v>450011</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="6">
         <v>417</v>
@@ -4287,13 +4245,13 @@
     </row>
     <row r="81" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="5">
         <v>450011</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="6">
         <v>909</v>
@@ -4316,13 +4274,13 @@
     </row>
     <row r="82" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="5">
         <v>460011</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="6">
         <v>151</v>
@@ -4345,13 +4303,13 @@
     </row>
     <row r="83" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B83" s="5">
         <v>460011</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="6">
         <v>455</v>
@@ -4374,13 +4332,13 @@
     </row>
     <row r="84" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="5">
         <v>470011</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="6">
         <v>319</v>
@@ -4403,13 +4361,13 @@
     </row>
     <row r="85" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="5">
         <v>470011</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="6">
         <v>197</v>
@@ -4432,13 +4390,13 @@
     </row>
     <row r="86" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="5">
         <v>480011</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="6">
         <v>398</v>
@@ -4461,13 +4419,13 @@
     </row>
     <row r="87" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87" s="5">
         <v>480011</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="6">
         <v>994</v>
@@ -4490,13 +4448,13 @@
     </row>
     <row r="88" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88" s="5">
         <v>490011</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="6">
         <v>1356</v>
@@ -4519,13 +4477,13 @@
     </row>
     <row r="89" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="5">
         <v>490011</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" s="6">
         <v>1166</v>
@@ -4548,13 +4506,13 @@
     </row>
     <row r="90" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B90" s="5">
         <v>500011</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="6">
         <v>59</v>
@@ -4577,13 +4535,13 @@
     </row>
     <row r="91" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91" s="5">
         <v>500011</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="6">
         <v>124</v>
@@ -4606,13 +4564,13 @@
     </row>
     <row r="92" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" s="5">
         <v>510011</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" s="6">
         <v>1404</v>
@@ -4635,13 +4593,13 @@
     </row>
     <row r="93" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" s="5">
         <v>510011</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="6">
         <v>3851</v>
@@ -4664,13 +4622,13 @@
     </row>
     <row r="94" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B94" s="5">
         <v>520011</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="6">
         <v>641</v>
@@ -4693,13 +4651,13 @@
     </row>
     <row r="95" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" s="5">
         <v>520011</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="6">
         <v>1514</v>
@@ -4722,13 +4680,13 @@
     </row>
     <row r="96" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" s="5">
         <v>530011</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" s="6">
         <v>23</v>
@@ -4745,19 +4703,17 @@
       <c r="H96" s="6">
         <v>10</v>
       </c>
-      <c r="I96" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" s="5">
         <v>530011</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="6">
         <v>70</v>
@@ -4774,19 +4730,17 @@
       <c r="H97" s="6">
         <v>13</v>
       </c>
-      <c r="I97" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B98" s="5">
         <v>540011</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="6">
         <v>684</v>
@@ -4809,13 +4763,13 @@
     </row>
     <row r="99" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B99" s="5">
         <v>540011</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" s="6">
         <v>2424</v>
@@ -4838,13 +4792,13 @@
     </row>
     <row r="100" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B100" s="5">
         <v>560011</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="6">
         <v>251</v>
@@ -4867,13 +4821,13 @@
     </row>
     <row r="101" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B101" s="5">
         <v>560011</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="6">
         <v>713</v>
@@ -4896,13 +4850,13 @@
     </row>
     <row r="102" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B102" s="5">
         <v>570011</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="6">
         <v>1561</v>
@@ -4925,13 +4879,13 @@
     </row>
     <row r="103" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" s="5">
         <v>570011</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="6">
         <v>3161</v>
@@ -4954,13 +4908,13 @@
     </row>
     <row r="104" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" s="5">
         <v>580011</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="6">
         <v>455</v>
@@ -4983,13 +4937,13 @@
     </row>
     <row r="105" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B105" s="5">
         <v>580011</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="6">
         <v>431</v>
@@ -5012,13 +4966,13 @@
     </row>
     <row r="106" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B106" s="5">
         <v>590011</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" s="6">
         <v>1153</v>
@@ -5041,13 +4995,13 @@
     </row>
     <row r="107" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="5">
         <v>590011</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="6">
         <v>913</v>
@@ -5070,13 +5024,13 @@
     </row>
     <row r="108" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B108" s="5">
         <v>600011</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="6">
         <v>432</v>
@@ -5099,13 +5053,13 @@
     </row>
     <row r="109" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B109" s="5">
         <v>600011</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="6">
         <v>1392</v>
@@ -5128,13 +5082,13 @@
     </row>
     <row r="110" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110" s="5">
         <v>620011</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="6">
         <v>1564</v>
@@ -5157,13 +5111,13 @@
     </row>
     <row r="111" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B111" s="5">
         <v>620011</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" s="6">
         <v>1230</v>
@@ -5186,13 +5140,13 @@
     </row>
     <row r="112" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B112" s="5">
         <v>630011</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" s="6">
         <v>20</v>
@@ -5207,21 +5161,19 @@
         <v>58.8</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I112" s="4"/>
     </row>
     <row r="113" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113" s="5">
         <v>630011</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" s="6">
         <v>25</v>
@@ -5236,21 +5188,19 @@
         <v>71.599999999999994</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114" s="5">
         <v>640011</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" s="6">
         <v>7777</v>
@@ -5273,13 +5223,13 @@
     </row>
     <row r="115" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B115" s="5">
         <v>640011</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" s="6">
         <v>1247</v>
@@ -5302,13 +5252,13 @@
     </row>
     <row r="116" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B116" s="5">
         <v>650011</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" s="6">
         <v>33</v>
@@ -5325,19 +5275,17 @@
       <c r="H116" s="6">
         <v>13</v>
       </c>
-      <c r="I116" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B117" s="5">
         <v>650011</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" s="6">
         <v>66</v>
@@ -5360,13 +5308,13 @@
     </row>
     <row r="118" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B118" s="5">
         <v>670011</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" s="6">
         <v>103</v>
@@ -5389,13 +5337,13 @@
     </row>
     <row r="119" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B119" s="5">
         <v>670011</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="6">
         <v>243</v>
@@ -5418,13 +5366,13 @@
     </row>
     <row r="120" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B120" s="5">
         <v>680011</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120" s="6">
         <v>38</v>
@@ -5441,19 +5389,17 @@
       <c r="H120" s="6">
         <v>12</v>
       </c>
-      <c r="I120" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B121" s="5">
         <v>680011</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="6">
         <v>94</v>
@@ -5476,13 +5422,13 @@
     </row>
     <row r="122" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B122" s="5">
         <v>690011</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" s="6">
         <v>648</v>
@@ -5505,13 +5451,13 @@
     </row>
     <row r="123" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B123" s="5">
         <v>690011</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" s="6">
         <v>459</v>
@@ -5534,13 +5480,13 @@
     </row>
     <row r="124" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B124" s="5">
         <v>710011</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D124" s="6">
         <v>197</v>
@@ -5563,13 +5509,13 @@
     </row>
     <row r="125" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B125" s="5">
         <v>710011</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" s="6">
         <v>299</v>
@@ -5592,13 +5538,13 @@
     </row>
     <row r="126" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B126" s="5">
         <v>720011</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="6">
         <v>538</v>
@@ -5621,13 +5567,13 @@
     </row>
     <row r="127" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B127" s="5">
         <v>720011</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="6">
         <v>703</v>
@@ -5650,13 +5596,13 @@
     </row>
     <row r="128" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" s="5">
         <v>730011</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D128" s="6">
         <v>119</v>
@@ -5679,13 +5625,13 @@
     </row>
     <row r="129" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B129" s="5">
         <v>730011</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" s="6">
         <v>137</v>
@@ -5708,13 +5654,13 @@
     </row>
     <row r="130" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B130" s="5">
         <v>740011</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" s="6">
         <v>157</v>
@@ -5737,13 +5683,13 @@
     </row>
     <row r="131" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B131" s="5">
         <v>740011</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D131" s="6">
         <v>299</v>
@@ -5766,13 +5712,13 @@
     </row>
     <row r="132" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B132" s="5">
         <v>760011</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="6">
         <v>241</v>
@@ -5795,13 +5741,13 @@
     </row>
     <row r="133" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B133" s="5">
         <v>760011</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" s="6">
         <v>1054</v>
@@ -5824,13 +5770,13 @@
     </row>
     <row r="134" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B134" s="5">
         <v>770011</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="6">
         <v>1922</v>
@@ -5853,13 +5799,13 @@
     </row>
     <row r="135" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B135" s="5">
         <v>770011</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" s="6">
         <v>924</v>
@@ -5882,13 +5828,13 @@
     </row>
     <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B136" s="5">
         <v>780011</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136" s="6">
         <v>275</v>
@@ -5911,13 +5857,13 @@
     </row>
     <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B137" s="5">
         <v>780011</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137" s="6">
         <v>456</v>
@@ -5940,13 +5886,13 @@
     </row>
     <row r="138" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="5">
         <v>790011</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" s="6">
         <v>75</v>
@@ -5963,19 +5909,17 @@
       <c r="H138" s="6">
         <v>17</v>
       </c>
-      <c r="I138" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="5">
         <v>790011</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" s="6">
         <v>199</v>
@@ -5998,13 +5942,13 @@
     </row>
     <row r="140" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B140" s="5">
         <v>800011</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140" s="6">
         <v>3222</v>
@@ -6027,13 +5971,13 @@
     </row>
     <row r="141" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B141" s="5">
         <v>800011</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D141" s="6">
         <v>734</v>
@@ -6056,13 +6000,13 @@
     </row>
     <row r="142" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B142" s="5">
         <v>830011</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D142" s="6">
         <v>1189</v>
@@ -6085,13 +6029,13 @@
     </row>
     <row r="143" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B143" s="5">
         <v>830011</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" s="6">
         <v>1039</v>
@@ -6114,13 +6058,13 @@
     </row>
     <row r="144" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" s="5">
         <v>840011</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144" s="6">
         <v>1058</v>
@@ -6143,13 +6087,13 @@
     </row>
     <row r="145" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" s="5">
         <v>840011</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" s="6">
         <v>1723</v>
@@ -6172,13 +6116,13 @@
     </row>
     <row r="146" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B146" s="5">
         <v>850011</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146" s="6">
         <v>395</v>
@@ -6201,13 +6145,13 @@
     </row>
     <row r="147" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B147" s="5">
         <v>850011</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D147" s="6">
         <v>1237</v>
@@ -6230,13 +6174,13 @@
     </row>
     <row r="148" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B148" s="5">
         <v>860011</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="6">
         <v>557</v>
@@ -6259,13 +6203,13 @@
     </row>
     <row r="149" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B149" s="5">
         <v>860011</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" s="6">
         <v>515</v>
@@ -6288,13 +6232,13 @@
     </row>
     <row r="150" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B150" s="5">
         <v>880011</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150" s="6">
         <v>1353</v>
@@ -6317,13 +6261,13 @@
     </row>
     <row r="151" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151" s="5">
         <v>880011</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151" s="6">
         <v>813</v>
@@ -6346,13 +6290,13 @@
     </row>
     <row r="152" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B152" s="5">
         <v>890011</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D152" s="6">
         <v>4364</v>
@@ -6375,13 +6319,13 @@
     </row>
     <row r="153" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B153" s="5">
         <v>890011</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D153" s="6">
         <v>502</v>
@@ -6404,13 +6348,13 @@
     </row>
     <row r="154" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B154" s="5">
         <v>900011</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D154" s="6">
         <v>310</v>
@@ -6433,13 +6377,13 @@
     </row>
     <row r="155" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B155" s="5">
         <v>900011</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" s="6">
         <v>1935</v>
@@ -6462,13 +6406,13 @@
     </row>
     <row r="156" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B156" s="5">
         <v>910011</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D156" s="6">
         <v>302</v>
@@ -6491,13 +6435,13 @@
     </row>
     <row r="157" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B157" s="5">
         <v>910011</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D157" s="6">
         <v>834</v>
@@ -6520,13 +6464,13 @@
     </row>
     <row r="158" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B158" s="5">
         <v>920011</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D158" s="6">
         <v>66</v>
@@ -6543,19 +6487,17 @@
       <c r="H158" s="6">
         <v>14</v>
       </c>
-      <c r="I158" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I158" s="4"/>
     </row>
     <row r="159" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B159" s="5">
         <v>920011</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D159" s="6">
         <v>192</v>
@@ -6578,13 +6520,13 @@
     </row>
     <row r="160" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B160" s="5">
         <v>930011</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D160" s="6">
         <v>8294</v>
@@ -6607,13 +6549,13 @@
     </row>
     <row r="161" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B161" s="5">
         <v>930011</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" s="6">
         <v>1848</v>
@@ -6636,13 +6578,13 @@
     </row>
     <row r="162" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B162" s="5">
         <v>940011</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" s="6">
         <v>954</v>
@@ -6665,13 +6607,13 @@
     </row>
     <row r="163" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B163" s="5">
         <v>940011</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D163" s="6">
         <v>1199</v>
@@ -6694,13 +6636,13 @@
     </row>
     <row r="164" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B164" s="5">
         <v>950011</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D164" s="6">
         <v>1438</v>
@@ -6723,13 +6665,13 @@
     </row>
     <row r="165" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B165" s="5">
         <v>950011</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D165" s="6">
         <v>205</v>
@@ -6752,13 +6694,13 @@
     </row>
     <row r="166" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B166" s="5">
         <v>960011</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166" s="6">
         <v>871</v>
@@ -6781,13 +6723,13 @@
     </row>
     <row r="167" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B167" s="5">
         <v>960011</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" s="6">
         <v>1162</v>
@@ -6810,13 +6752,13 @@
     </row>
     <row r="168" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B168" s="5">
         <v>970011</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D168" s="6">
         <v>504</v>
@@ -6839,13 +6781,13 @@
     </row>
     <row r="169" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B169" s="5">
         <v>970011</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D169" s="6">
         <v>1747</v>
@@ -6868,13 +6810,13 @@
     </row>
     <row r="170" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B170" s="5">
         <v>980011</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170" s="6">
         <v>25</v>
@@ -6891,19 +6833,17 @@
       <c r="H170" s="6">
         <v>8</v>
       </c>
-      <c r="I170" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I170" s="4"/>
     </row>
     <row r="171" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B171" s="5">
         <v>980011</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" s="6">
         <v>29</v>
@@ -6920,19 +6860,17 @@
       <c r="H171" s="6">
         <v>6</v>
       </c>
-      <c r="I171" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I171" s="4"/>
     </row>
     <row r="172" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B172" s="5">
         <v>990011</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D172" s="6">
         <v>322</v>
@@ -6955,13 +6893,13 @@
     </row>
     <row r="173" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B173" s="5">
         <v>990011</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D173" s="6">
         <v>609</v>
@@ -6984,13 +6922,13 @@
     </row>
     <row r="174" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B174" s="5">
         <v>1000011</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174" s="6">
         <v>84</v>
@@ -7013,13 +6951,13 @@
     </row>
     <row r="175" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B175" s="5">
         <v>1000011</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D175" s="6">
         <v>65</v>
@@ -7042,13 +6980,13 @@
     </row>
     <row r="176" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B176" s="5">
         <v>1010011</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" s="6">
         <v>477</v>
@@ -7071,13 +7009,13 @@
     </row>
     <row r="177" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B177" s="5">
         <v>1010011</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D177" s="6">
         <v>1137</v>
@@ -7100,13 +7038,13 @@
     </row>
     <row r="178" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B178" s="5">
         <v>1020011</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D178" s="6">
         <v>70</v>
@@ -7129,13 +7067,13 @@
     </row>
     <row r="179" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B179" s="5">
         <v>1020011</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179" s="6">
         <v>315</v>
@@ -7158,13 +7096,13 @@
     </row>
     <row r="180" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B180" s="5">
         <v>1030011</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D180" s="6">
         <v>3791</v>
@@ -7187,13 +7125,13 @@
     </row>
     <row r="181" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B181" s="5">
         <v>1030011</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D181" s="6">
         <v>1862</v>
@@ -7216,13 +7154,13 @@
     </row>
     <row r="182" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B182" s="5">
         <v>1040011</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D182" s="6">
         <v>1594</v>
@@ -7245,13 +7183,13 @@
     </row>
     <row r="183" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B183" s="5">
         <v>1040011</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D183" s="6">
         <v>416</v>
@@ -7274,13 +7212,13 @@
     </row>
     <row r="184" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B184" s="5">
         <v>1060011</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D184" s="6">
         <v>243</v>
@@ -7303,13 +7241,13 @@
     </row>
     <row r="185" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B185" s="5">
         <v>1060011</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185" s="6">
         <v>390</v>
@@ -7332,13 +7270,13 @@
     </row>
     <row r="186" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B186" s="5">
         <v>1070011</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D186" s="6">
         <v>168</v>
@@ -7361,13 +7299,13 @@
     </row>
     <row r="187" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" s="5">
         <v>1070011</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="6">
         <v>497</v>
@@ -7390,13 +7328,13 @@
     </row>
     <row r="188" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B188" s="5">
         <v>1080011</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D188" s="6">
         <v>247</v>
@@ -7419,13 +7357,13 @@
     </row>
     <row r="189" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B189" s="5">
         <v>1080011</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D189" s="6">
         <v>735</v>
@@ -7448,13 +7386,13 @@
     </row>
     <row r="190" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B190" s="5">
         <v>1090011</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190" s="6">
         <v>659</v>
@@ -7477,13 +7415,13 @@
     </row>
     <row r="191" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B191" s="5">
         <v>1090011</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D191" s="6">
         <v>424</v>
@@ -7506,13 +7444,13 @@
     </row>
     <row r="192" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B192" s="5">
         <v>1100011</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D192" s="6">
         <v>570</v>
@@ -7535,13 +7473,13 @@
     </row>
     <row r="193" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B193" s="5">
         <v>1100011</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D193" s="6">
         <v>605</v>
@@ -7564,13 +7502,13 @@
     </row>
     <row r="194" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B194" s="5">
         <v>1110011</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D194" s="6">
         <v>359</v>
@@ -7593,13 +7531,13 @@
     </row>
     <row r="195" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B195" s="5">
         <v>1110011</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D195" s="6">
         <v>372</v>
@@ -7622,13 +7560,13 @@
     </row>
     <row r="196" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B196" s="5">
         <v>1120011</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196" s="6">
         <v>76</v>
@@ -7651,13 +7589,13 @@
     </row>
     <row r="197" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B197" s="5">
         <v>1120011</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D197" s="6">
         <v>182</v>
@@ -7680,13 +7618,13 @@
     </row>
     <row r="198" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B198" s="5">
         <v>1130011</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198" s="6">
         <v>238</v>
@@ -7709,13 +7647,13 @@
     </row>
     <row r="199" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B199" s="5">
         <v>1130011</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D199" s="6">
         <v>443</v>
@@ -7738,13 +7676,13 @@
     </row>
     <row r="200" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B200" s="5">
         <v>1140011</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D200" s="6">
         <v>115</v>
@@ -7767,13 +7705,13 @@
     </row>
     <row r="201" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B201" s="5">
         <v>1140011</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D201" s="6">
         <v>155</v>
@@ -7796,13 +7734,13 @@
     </row>
     <row r="202" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B202" s="5">
         <v>1160011</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D202" s="6">
         <v>383</v>
@@ -7825,13 +7763,13 @@
     </row>
     <row r="203" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B203" s="5">
         <v>1160011</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D203" s="6">
         <v>180</v>
@@ -7854,13 +7792,13 @@
     </row>
     <row r="204" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B204" s="5">
         <v>1170011</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D204" s="6">
         <v>129</v>
@@ -7883,13 +7821,13 @@
     </row>
     <row r="205" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B205" s="5">
         <v>1170011</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D205" s="6">
         <v>400</v>
@@ -7912,13 +7850,13 @@
     </row>
     <row r="206" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B206" s="5">
         <v>1180011</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D206" s="6">
         <v>476</v>
@@ -7941,13 +7879,13 @@
     </row>
     <row r="207" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B207" s="5">
         <v>1180011</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D207" s="6">
         <v>2050</v>
@@ -7970,13 +7908,13 @@
     </row>
     <row r="208" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B208" s="5">
         <v>1190011</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D208" s="6">
         <v>495</v>
@@ -7999,13 +7937,13 @@
     </row>
     <row r="209" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B209" s="5">
         <v>1190011</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209" s="6">
         <v>909</v>
@@ -8028,13 +7966,13 @@
     </row>
     <row r="210" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B210" s="5">
         <v>1210011</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D210" s="6">
         <v>77</v>
@@ -8057,13 +7995,13 @@
     </row>
     <row r="211" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B211" s="5">
         <v>1210011</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211" s="6">
         <v>200</v>
@@ -8086,13 +8024,13 @@
     </row>
     <row r="212" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B212" s="5">
         <v>1220011</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D212" s="6">
         <v>63</v>
@@ -8109,19 +8047,17 @@
       <c r="H212" s="6">
         <v>14</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I212" s="4"/>
     </row>
     <row r="213" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B213" s="5">
         <v>1220011</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D213" s="6">
         <v>110</v>
@@ -8144,42 +8080,36 @@
     </row>
     <row r="214" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B214" s="5">
         <v>1230011</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D214" s="6">
         <v>17</v>
       </c>
-      <c r="E214" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E214" s="4"/>
       <c r="F214" s="6">
         <v>17</v>
       </c>
-      <c r="G214" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G214" s="4"/>
       <c r="H214" s="6">
         <v>7</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I214" s="4"/>
     </row>
     <row r="215" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B215" s="5">
         <v>1230011</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D215" s="6">
         <v>28</v>
@@ -8196,19 +8126,17 @@
       <c r="H215" s="6">
         <v>6</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I215" s="4"/>
     </row>
     <row r="216" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B216" s="5">
         <v>1240011</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D216" s="6">
         <v>524</v>
@@ -8231,13 +8159,13 @@
     </row>
     <row r="217" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B217" s="5">
         <v>1240011</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D217" s="6">
         <v>620</v>
@@ -8260,13 +8188,13 @@
     </row>
     <row r="218" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B218" s="5">
         <v>1250011</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D218" s="6">
         <v>37</v>
@@ -8283,19 +8211,17 @@
       <c r="H218" s="6">
         <v>11</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I218" s="4"/>
     </row>
     <row r="219" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B219" s="5">
         <v>1250011</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D219" s="6">
         <v>37</v>
@@ -8312,19 +8238,17 @@
       <c r="H219" s="6">
         <v>14</v>
       </c>
-      <c r="I219" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I219" s="4"/>
     </row>
     <row r="220" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B220" s="5">
         <v>1260011</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D220" s="6">
         <v>1036</v>
@@ -8347,13 +8271,13 @@
     </row>
     <row r="221" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B221" s="5">
         <v>1260011</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D221" s="6">
         <v>1467</v>
@@ -8376,13 +8300,13 @@
     </row>
     <row r="222" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B222" s="5">
         <v>1270011</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D222" s="6">
         <v>38</v>
@@ -8399,19 +8323,17 @@
       <c r="H222" s="6">
         <v>9</v>
       </c>
-      <c r="I222" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I222" s="4"/>
     </row>
     <row r="223" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B223" s="5">
         <v>1270011</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D223" s="6">
         <v>143</v>
@@ -8434,13 +8356,13 @@
     </row>
     <row r="224" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B224" s="5">
         <v>1280011</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D224" s="6">
         <v>521</v>
@@ -8463,13 +8385,13 @@
     </row>
     <row r="225" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B225" s="5">
         <v>1280011</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D225" s="6">
         <v>1556</v>
@@ -8492,13 +8414,13 @@
     </row>
     <row r="226" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B226" s="5">
         <v>1290011</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D226" s="6">
         <v>142</v>
@@ -8521,13 +8443,13 @@
     </row>
     <row r="227" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B227" s="5">
         <v>1290011</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D227" s="6">
         <v>528</v>
@@ -8550,13 +8472,13 @@
     </row>
     <row r="228" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B228" s="5">
         <v>1310011</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D228" s="6">
         <v>1090</v>
@@ -8579,13 +8501,13 @@
     </row>
     <row r="229" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B229" s="5">
         <v>1310011</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D229" s="6">
         <v>2300</v>
@@ -8608,13 +8530,13 @@
     </row>
     <row r="230" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B230" s="5">
         <v>1320011</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D230" s="6">
         <v>711</v>
@@ -8637,13 +8559,13 @@
     </row>
     <row r="231" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B231" s="5">
         <v>1320011</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D231" s="6">
         <v>1530</v>
@@ -8666,13 +8588,13 @@
     </row>
     <row r="232" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B232" s="5">
         <v>1330011</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D232" s="6">
         <v>112</v>
@@ -8695,13 +8617,13 @@
     </row>
     <row r="233" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B233" s="5">
         <v>1330011</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D233" s="6">
         <v>59</v>
@@ -8724,13 +8646,13 @@
     </row>
     <row r="234" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B234" s="5">
         <v>1340011</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D234" s="6">
         <v>361</v>
@@ -8753,13 +8675,13 @@
     </row>
     <row r="235" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B235" s="5">
         <v>1340011</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D235" s="6">
         <v>420</v>
@@ -8782,13 +8704,13 @@
     </row>
     <row r="236" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B236" s="5">
         <v>1350011</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D236" s="6">
         <v>5055</v>
@@ -8811,13 +8733,13 @@
     </row>
     <row r="237" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B237" s="5">
         <v>1350011</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D237" s="6">
         <v>2846</v>
@@ -8840,13 +8762,13 @@
     </row>
     <row r="238" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B238" s="5">
         <v>1360011</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D238" s="6">
         <v>105</v>
@@ -8869,13 +8791,13 @@
     </row>
     <row r="239" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B239" s="5">
         <v>1360011</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D239" s="6">
         <v>133</v>
@@ -8898,13 +8820,13 @@
     </row>
     <row r="240" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B240" s="5">
         <v>1370011</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D240" s="6">
         <v>382</v>
@@ -8927,13 +8849,13 @@
     </row>
     <row r="241" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B241" s="5">
         <v>1370011</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D241" s="6">
         <v>655</v>
@@ -8956,13 +8878,13 @@
     </row>
     <row r="242" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B242" s="5">
         <v>1380011</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D242" s="6">
         <v>2089</v>
@@ -8985,13 +8907,13 @@
     </row>
     <row r="243" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B243" s="5">
         <v>1380011</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D243" s="6">
         <v>1430</v>
@@ -9014,13 +8936,13 @@
     </row>
     <row r="244" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B244" s="5">
         <v>1390011</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D244" s="6">
         <v>277</v>
@@ -9043,13 +8965,13 @@
     </row>
     <row r="245" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B245" s="5">
         <v>1390011</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D245" s="6">
         <v>771</v>
@@ -9072,13 +8994,13 @@
     </row>
     <row r="246" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B246" s="5">
         <v>1400011</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D246" s="6">
         <v>163</v>
@@ -9101,13 +9023,13 @@
     </row>
     <row r="247" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B247" s="5">
         <v>1400011</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D247" s="6">
         <v>264</v>
@@ -9130,13 +9052,13 @@
     </row>
     <row r="248" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B248" s="5">
         <v>1410011</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D248" s="6">
         <v>221</v>
@@ -9159,13 +9081,13 @@
     </row>
     <row r="249" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B249" s="5">
         <v>1410011</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D249" s="6">
         <v>248</v>
@@ -9188,13 +9110,13 @@
     </row>
     <row r="250" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B250" s="5">
         <v>1420011</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D250" s="6">
         <v>302</v>
@@ -9217,13 +9139,13 @@
     </row>
     <row r="251" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B251" s="5">
         <v>1420011</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D251" s="6">
         <v>917</v>
@@ -9246,13 +9168,13 @@
     </row>
     <row r="252" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B252" s="5">
         <v>1430011</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D252" s="6">
         <v>1444</v>
@@ -9275,13 +9197,13 @@
     </row>
     <row r="253" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B253" s="5">
         <v>1430011</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D253" s="6">
         <v>617</v>
@@ -9304,13 +9226,13 @@
     </row>
     <row r="254" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B254" s="5">
         <v>1440011</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D254" s="6">
         <v>985</v>
@@ -9333,13 +9255,13 @@
     </row>
     <row r="255" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B255" s="5">
         <v>1440011</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D255" s="6">
         <v>2469</v>
@@ -9362,71 +9284,59 @@
     </row>
     <row r="256" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B256" s="5">
         <v>1450011</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D256" s="6">
         <v>10</v>
       </c>
-      <c r="E256" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E256" s="4"/>
       <c r="F256" s="6">
         <v>10</v>
       </c>
-      <c r="G256" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G256" s="4"/>
       <c r="H256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I256" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I256" s="4"/>
     </row>
     <row r="257" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B257" s="5">
         <v>1450011</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D257" s="6">
         <v>19</v>
       </c>
-      <c r="E257" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E257" s="4"/>
       <c r="F257" s="6">
         <v>19</v>
       </c>
-      <c r="G257" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G257" s="4"/>
       <c r="H257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I257" s="4"/>
     </row>
     <row r="258" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B258" s="5">
         <v>1460011</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D258" s="6">
         <v>946</v>
@@ -9449,13 +9359,13 @@
     </row>
     <row r="259" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B259" s="5">
         <v>1460011</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D259" s="6">
         <v>608</v>
@@ -9478,13 +9388,13 @@
     </row>
     <row r="260" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B260" s="5">
         <v>1470011</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D260" s="6">
         <v>60</v>
@@ -9501,19 +9411,17 @@
       <c r="H260" s="6">
         <v>17</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I260" s="4"/>
     </row>
     <row r="261" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B261" s="5">
         <v>1470011</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D261" s="6">
         <v>104</v>
@@ -9536,13 +9444,13 @@
     </row>
     <row r="262" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B262" s="5">
         <v>1480011</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D262" s="6">
         <v>1197</v>
@@ -9565,13 +9473,13 @@
     </row>
     <row r="263" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B263" s="5">
         <v>1480011</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D263" s="6">
         <v>1664</v>
@@ -9594,13 +9502,13 @@
     </row>
     <row r="264" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B264" s="5">
         <v>1510011</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D264" s="6">
         <v>8149</v>
@@ -9623,13 +9531,13 @@
     </row>
     <row r="265" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B265" s="5">
         <v>1510011</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D265" s="6">
         <v>915</v>
@@ -9652,13 +9560,13 @@
     </row>
     <row r="266" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B266" s="5">
         <v>1520011</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D266" s="6">
         <v>514</v>
@@ -9681,13 +9589,13 @@
     </row>
     <row r="267" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B267" s="5">
         <v>1520011</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D267" s="6">
         <v>802</v>
@@ -9710,13 +9618,13 @@
     </row>
     <row r="268" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B268" s="5">
         <v>1530011</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D268" s="6">
         <v>607</v>
@@ -9739,13 +9647,13 @@
     </row>
     <row r="269" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B269" s="5">
         <v>1530011</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D269" s="6">
         <v>827</v>
@@ -9768,13 +9676,13 @@
     </row>
     <row r="270" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B270" s="5">
         <v>1540011</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D270" s="6">
         <v>130</v>
@@ -9797,13 +9705,13 @@
     </row>
     <row r="271" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B271" s="5">
         <v>1540011</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D271" s="6">
         <v>186</v>
@@ -9826,13 +9734,13 @@
     </row>
     <row r="272" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B272" s="5">
         <v>1550011</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D272" s="6">
         <v>1750</v>
@@ -9855,13 +9763,13 @@
     </row>
     <row r="273" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B273" s="5">
         <v>1550011</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D273" s="6">
         <v>3118</v>
@@ -9884,13 +9792,13 @@
     </row>
     <row r="274" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B274" s="5">
         <v>1560011</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D274" s="6">
         <v>2054</v>
@@ -9913,13 +9821,13 @@
     </row>
     <row r="275" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B275" s="5">
         <v>1560011</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D275" s="6">
         <v>909</v>
@@ -9942,13 +9850,13 @@
     </row>
     <row r="276" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B276" s="5">
         <v>1570011</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D276" s="6">
         <v>164</v>
@@ -9971,13 +9879,13 @@
     </row>
     <row r="277" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B277" s="5">
         <v>1570011</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D277" s="6">
         <v>1084</v>
@@ -10000,13 +9908,13 @@
     </row>
     <row r="278" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B278" s="5">
         <v>1580011</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D278" s="6">
         <v>459</v>
@@ -10029,13 +9937,13 @@
     </row>
     <row r="279" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B279" s="5">
         <v>1580011</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D279" s="6">
         <v>2405</v>
@@ -10058,13 +9966,13 @@
     </row>
     <row r="280" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B280" s="5">
         <v>1590011</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D280" s="6">
         <v>710</v>
@@ -10087,13 +9995,13 @@
     </row>
     <row r="281" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B281" s="5">
         <v>1590011</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D281" s="6">
         <v>1144</v>
@@ -10116,13 +10024,13 @@
     </row>
     <row r="282" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B282" s="5">
         <v>1600011</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D282" s="6">
         <v>108</v>
@@ -10145,13 +10053,13 @@
     </row>
     <row r="283" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B283" s="5">
         <v>1600011</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D283" s="6">
         <v>168</v>
@@ -10174,13 +10082,13 @@
     </row>
     <row r="284" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B284" s="5">
         <v>1610011</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D284" s="6">
         <v>422</v>
@@ -10203,13 +10111,13 @@
     </row>
     <row r="285" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B285" s="5">
         <v>1610011</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D285" s="6">
         <v>1663</v>
@@ -10232,13 +10140,13 @@
     </row>
     <row r="286" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B286" s="5">
         <v>1620011</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D286" s="6">
         <v>210</v>
@@ -10261,13 +10169,13 @@
     </row>
     <row r="287" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B287" s="5">
         <v>1620011</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D287" s="6">
         <v>73</v>
@@ -10284,19 +10192,17 @@
       <c r="H287" s="6">
         <v>15</v>
       </c>
-      <c r="I287" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I287" s="4"/>
     </row>
     <row r="288" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B288" s="5">
         <v>1630011</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D288" s="6">
         <v>1321</v>
@@ -10319,13 +10225,13 @@
     </row>
     <row r="289" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B289" s="5">
         <v>1630011</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D289" s="6">
         <v>352</v>
@@ -10348,13 +10254,13 @@
     </row>
     <row r="290" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B290" s="5">
         <v>1640011</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D290" s="6">
         <v>844</v>
@@ -10377,13 +10283,13 @@
     </row>
     <row r="291" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B291" s="5">
         <v>1640011</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D291" s="6">
         <v>761</v>
@@ -10406,13 +10312,13 @@
     </row>
     <row r="292" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B292" s="5">
         <v>1650011</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D292" s="6">
         <v>448</v>
@@ -10435,13 +10341,13 @@
     </row>
     <row r="293" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B293" s="5">
         <v>1650011</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D293" s="6">
         <v>313</v>
@@ -10464,13 +10370,13 @@
     </row>
     <row r="294" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B294" s="5">
         <v>1660011</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D294" s="6">
         <v>451</v>
@@ -10493,13 +10399,13 @@
     </row>
     <row r="295" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B295" s="5">
         <v>1660011</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D295" s="6">
         <v>737</v>
@@ -10522,13 +10428,13 @@
     </row>
     <row r="296" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B296" s="5">
         <v>1670011</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D296" s="6">
         <v>103</v>
@@ -10551,13 +10457,13 @@
     </row>
     <row r="297" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B297" s="5">
         <v>1670011</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D297" s="6">
         <v>363</v>
@@ -10580,13 +10486,13 @@
     </row>
     <row r="298" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B298" s="5">
         <v>1690011</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D298" s="6">
         <v>146</v>
@@ -10609,13 +10515,13 @@
     </row>
     <row r="299" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B299" s="5">
         <v>1690011</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D299" s="6">
         <v>392</v>
@@ -10638,13 +10544,13 @@
     </row>
     <row r="300" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B300" s="5">
         <v>2010012</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D300" s="6">
         <v>51</v>
@@ -10667,13 +10573,13 @@
     </row>
     <row r="301" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B301" s="5">
         <v>2010012</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D301" s="6">
         <v>41</v>
@@ -10696,13 +10602,13 @@
     </row>
     <row r="302" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B302" s="5">
         <v>2040012</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D302" s="6">
         <v>148</v>
@@ -10725,13 +10631,13 @@
     </row>
     <row r="303" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B303" s="5">
         <v>2040012</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D303" s="6">
         <v>270</v>
@@ -10754,13 +10660,13 @@
     </row>
     <row r="304" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B304" s="5">
         <v>2050012</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D304" s="6">
         <v>239</v>
@@ -10783,13 +10689,13 @@
     </row>
     <row r="305" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B305" s="5">
         <v>2050012</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D305" s="6">
         <v>786</v>
@@ -10812,13 +10718,13 @@
     </row>
     <row r="306" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B306" s="5">
         <v>2060012</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D306" s="6">
         <v>124</v>
@@ -10841,13 +10747,13 @@
     </row>
     <row r="307" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B307" s="5">
         <v>2060012</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D307" s="6">
         <v>278</v>
@@ -10870,13 +10776,13 @@
     </row>
     <row r="308" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B308" s="5">
         <v>2070012</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D308" s="6">
         <v>121</v>
@@ -10899,13 +10805,13 @@
     </row>
     <row r="309" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B309" s="5">
         <v>2070012</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D309" s="6">
         <v>314</v>
@@ -10928,13 +10834,13 @@
     </row>
     <row r="310" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B310" s="5">
         <v>2080012</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D310" s="6">
         <v>180</v>
@@ -10957,13 +10863,13 @@
     </row>
     <row r="311" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B311" s="5">
         <v>2080012</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D311" s="6">
         <v>544</v>
@@ -10986,13 +10892,13 @@
     </row>
     <row r="312" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B312" s="5">
         <v>2090012</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D312" s="6">
         <v>41</v>
@@ -11015,13 +10921,13 @@
     </row>
     <row r="313" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B313" s="5">
         <v>2090012</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D313" s="6">
         <v>168</v>
@@ -11044,13 +10950,13 @@
     </row>
     <row r="314" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B314" s="5">
         <v>2100012</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D314" s="6">
         <v>275</v>
@@ -11073,13 +10979,13 @@
     </row>
     <row r="315" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B315" s="5">
         <v>2100012</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D315" s="6">
         <v>883</v>
@@ -11102,13 +11008,13 @@
     </row>
     <row r="316" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B316" s="5">
         <v>2110012</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D316" s="6">
         <v>53</v>
@@ -11131,13 +11037,13 @@
     </row>
     <row r="317" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B317" s="5">
         <v>2110012</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D317" s="6">
         <v>59</v>
@@ -11160,13 +11066,13 @@
     </row>
     <row r="318" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B318" s="5">
         <v>2120012</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D318" s="6">
         <v>124</v>
@@ -11189,13 +11095,13 @@
     </row>
     <row r="319" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B319" s="5">
         <v>2120012</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D319" s="6">
         <v>218</v>
@@ -11218,13 +11124,13 @@
     </row>
     <row r="320" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B320" s="5">
         <v>2130012</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D320" s="6">
         <v>246</v>
@@ -11247,13 +11153,13 @@
     </row>
     <row r="321" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B321" s="5">
         <v>2130012</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D321" s="6">
         <v>583</v>
@@ -11276,13 +11182,13 @@
     </row>
     <row r="322" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B322" s="5">
         <v>2140012</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D322" s="6">
         <v>285</v>
@@ -11305,13 +11211,13 @@
     </row>
     <row r="323" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B323" s="5">
         <v>2140012</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D323" s="6">
         <v>504</v>
@@ -11334,13 +11240,13 @@
     </row>
     <row r="324" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B324" s="5">
         <v>2150012</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D324" s="6">
         <v>534</v>
@@ -11363,13 +11269,13 @@
     </row>
     <row r="325" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B325" s="5">
         <v>2150012</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D325" s="6">
         <v>1362</v>
@@ -11392,13 +11298,13 @@
     </row>
     <row r="326" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B326" s="5">
         <v>2160012</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D326" s="6">
         <v>324</v>
@@ -11421,13 +11327,13 @@
     </row>
     <row r="327" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B327" s="5">
         <v>2160012</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D327" s="6">
         <v>806</v>
@@ -11450,13 +11356,13 @@
     </row>
     <row r="328" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B328" s="5">
         <v>2170012</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D328" s="6">
         <v>287</v>
@@ -11479,13 +11385,13 @@
     </row>
     <row r="329" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B329" s="5">
         <v>2170012</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D329" s="6">
         <v>780</v>
@@ -11508,13 +11414,13 @@
     </row>
     <row r="330" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B330" s="5">
         <v>2180012</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D330" s="6">
         <v>189</v>
@@ -11537,13 +11443,13 @@
     </row>
     <row r="331" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B331" s="5">
         <v>2180012</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D331" s="6">
         <v>456</v>
@@ -11566,13 +11472,13 @@
     </row>
     <row r="332" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B332" s="5">
         <v>2190012</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D332" s="6">
         <v>89</v>
@@ -11595,13 +11501,13 @@
     </row>
     <row r="333" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B333" s="5">
         <v>2190012</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D333" s="6">
         <v>197</v>
@@ -11624,13 +11530,13 @@
     </row>
     <row r="334" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B334" s="5">
         <v>2410014</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D334" s="6">
         <v>2796</v>
@@ -11653,13 +11559,13 @@
     </row>
     <row r="335" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B335" s="5">
         <v>2410014</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D335" s="6">
         <v>1338</v>
@@ -11682,20 +11588,18 @@
     </row>
     <row r="336" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B336" s="5">
         <v>2420014</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D336" s="6">
         <v>17</v>
       </c>
-      <c r="E336" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E336" s="4"/>
       <c r="F336" s="6">
         <v>20</v>
       </c>
@@ -11705,48 +11609,40 @@
       <c r="H336" s="6">
         <v>12</v>
       </c>
-      <c r="I336" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I336" s="4"/>
     </row>
     <row r="337" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B337" s="5">
         <v>2420014</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D337" s="6">
         <v>0</v>
       </c>
-      <c r="E337" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E337" s="4"/>
       <c r="F337" s="6">
         <v>0</v>
       </c>
-      <c r="G337" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G337" s="4"/>
       <c r="H337" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I337" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I337" s="4"/>
     </row>
     <row r="338" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B338" s="5">
         <v>2430014</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D338" s="6">
         <v>223</v>
@@ -11769,13 +11665,13 @@
     </row>
     <row r="339" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B339" s="5">
         <v>2430014</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D339" s="6">
         <v>148</v>
@@ -11798,13 +11694,13 @@
     </row>
     <row r="340" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B340" s="5">
         <v>2440014</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D340" s="6">
         <v>850</v>
@@ -11827,13 +11723,13 @@
     </row>
     <row r="341" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B341" s="5">
         <v>2440014</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D341" s="6">
         <v>460</v>
@@ -11856,13 +11752,13 @@
     </row>
     <row r="342" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B342" s="5">
         <v>2450014</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D342" s="6">
         <v>559</v>
@@ -11885,13 +11781,13 @@
     </row>
     <row r="343" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B343" s="5">
         <v>2450014</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D343" s="6">
         <v>230</v>
@@ -11914,13 +11810,13 @@
     </row>
     <row r="344" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B344" s="5">
         <v>2530014</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D344" s="6">
         <v>99</v>
@@ -11943,13 +11839,13 @@
     </row>
     <row r="345" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B345" s="5">
         <v>2530014</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D345" s="6">
         <v>39</v>
@@ -11972,13 +11868,13 @@
     </row>
     <row r="346" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B346" s="5">
         <v>2610013</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D346" s="6">
         <v>217</v>
@@ -12001,13 +11897,13 @@
     </row>
     <row r="347" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B347" s="5">
         <v>2610013</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D347" s="6">
         <v>181</v>
@@ -12030,13 +11926,13 @@
     </row>
     <row r="348" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B348" s="5">
         <v>2630013</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D348" s="6">
         <v>108</v>
@@ -12059,13 +11955,13 @@
     </row>
     <row r="349" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B349" s="5">
         <v>2630013</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D349" s="6">
         <v>107</v>
@@ -12088,13 +11984,13 @@
     </row>
     <row r="350" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B350" s="5">
         <v>2640013</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D350" s="6">
         <v>102</v>
@@ -12117,13 +12013,13 @@
     </row>
     <row r="351" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B351" s="5">
         <v>2640013</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D351" s="6">
         <v>95</v>
@@ -12146,13 +12042,13 @@
     </row>
     <row r="352" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B352" s="5">
         <v>2650013</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D352" s="6">
         <v>190</v>
@@ -12175,13 +12071,13 @@
     </row>
     <row r="353" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B353" s="5">
         <v>2650013</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D353" s="6">
         <v>61</v>
@@ -12204,13 +12100,13 @@
     </row>
     <row r="354" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B354" s="5">
         <v>2680013</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D354" s="6">
         <v>31</v>
@@ -12233,42 +12129,36 @@
     </row>
     <row r="355" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B355" s="5">
         <v>2680013</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D355" s="6">
         <v>8</v>
       </c>
-      <c r="E355" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E355" s="4"/>
       <c r="F355" s="6">
         <v>8</v>
       </c>
-      <c r="G355" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G355" s="4"/>
       <c r="H355" s="6">
         <v>8</v>
       </c>
-      <c r="I355" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I355" s="4"/>
     </row>
     <row r="356" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B356" s="5">
         <v>2690013</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D356" s="6">
         <v>103</v>
@@ -12291,13 +12181,13 @@
     </row>
     <row r="357" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B357" s="5">
         <v>2690013</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D357" s="6">
         <v>25</v>
@@ -12314,19 +12204,17 @@
       <c r="H357" s="6">
         <v>16</v>
       </c>
-      <c r="I357" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I357" s="4"/>
     </row>
     <row r="358" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B358" s="5">
         <v>2700013</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D358" s="6">
         <v>91</v>
@@ -12349,13 +12237,13 @@
     </row>
     <row r="359" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B359" s="5">
         <v>2700013</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D359" s="6">
         <v>40</v>
@@ -12372,77 +12260,63 @@
       <c r="H359" s="6">
         <v>16</v>
       </c>
-      <c r="I359" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I359" s="4"/>
     </row>
     <row r="360" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B360" s="5">
         <v>2720013</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D360" s="6">
         <v>14</v>
       </c>
-      <c r="E360" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E360" s="4"/>
       <c r="F360" s="6">
         <v>14</v>
       </c>
-      <c r="G360" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G360" s="4"/>
       <c r="H360" s="6">
         <v>14</v>
       </c>
-      <c r="I360" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I360" s="4"/>
     </row>
     <row r="361" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B361" s="5">
         <v>2720013</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D361" s="6">
         <v>8</v>
       </c>
-      <c r="E361" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E361" s="4"/>
       <c r="F361" s="6">
         <v>8</v>
       </c>
-      <c r="G361" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G361" s="4"/>
       <c r="H361" s="6">
         <v>7</v>
       </c>
-      <c r="I361" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I361" s="4"/>
     </row>
     <row r="362" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B362" s="5">
         <v>2780013</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D362" s="6">
         <v>90</v>
@@ -12465,13 +12339,13 @@
     </row>
     <row r="363" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B363" s="5">
         <v>2780013</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D363" s="6">
         <v>25</v>
@@ -12488,19 +12362,17 @@
       <c r="H363" s="6">
         <v>10</v>
       </c>
-      <c r="I363" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I363" s="4"/>
     </row>
     <row r="364" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B364" s="5">
         <v>2790013</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D364" s="6">
         <v>574</v>
@@ -12523,13 +12395,13 @@
     </row>
     <row r="365" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B365" s="5">
         <v>2800013</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D365" s="6">
         <v>228</v>
@@ -12552,13 +12424,13 @@
     </row>
     <row r="366" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B366" s="5">
         <v>2800013</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D366" s="6">
         <v>28</v>
@@ -12575,19 +12447,17 @@
       <c r="H366" s="6">
         <v>7</v>
       </c>
-      <c r="I366" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I366" s="4"/>
     </row>
     <row r="367" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B367" s="5">
         <v>2820013</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D367" s="6">
         <v>23</v>
@@ -12604,19 +12474,17 @@
       <c r="H367" s="6">
         <v>16</v>
       </c>
-      <c r="I367" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I367" s="4"/>
     </row>
     <row r="368" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B368" s="5">
         <v>2830013</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D368" s="6">
         <v>301</v>
@@ -12639,13 +12507,13 @@
     </row>
     <row r="369" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B369" s="5">
         <v>2830013</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D369" s="6">
         <v>49</v>
@@ -12668,71 +12536,59 @@
     </row>
     <row r="370" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B370" s="5">
         <v>2850013</v>
       </c>
       <c r="C370" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D370" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E370" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E370" s="4"/>
       <c r="F370" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G370" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G370" s="4"/>
       <c r="H370" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I370" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I370" s="4"/>
     </row>
     <row r="371" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B371" s="5">
         <v>2850013</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E371" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E371" s="4"/>
       <c r="F371" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G371" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G371" s="4"/>
       <c r="H371" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I371" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I371" s="4"/>
     </row>
     <row r="372" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B372" s="5">
         <v>2860013</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D372" s="6">
         <v>169</v>
@@ -12755,13 +12611,13 @@
     </row>
     <row r="373" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B373" s="5">
         <v>2860013</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D373" s="6">
         <v>42</v>
@@ -12778,32 +12634,24 @@
       <c r="H373" s="6">
         <v>14</v>
       </c>
-      <c r="I373" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I373" s="4"/>
     </row>
     <row r="374" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B374" s="5">
         <v>2880013</v>
       </c>
       <c r="C374" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D374" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E374" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F374" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G374" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
       <c r="H374" s="6">
         <v>251</v>
       </c>
@@ -12813,55 +12661,41 @@
     </row>
     <row r="375" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B375" s="5">
         <v>2880013</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G375" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
       <c r="H375" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I375" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I375" s="4"/>
     </row>
     <row r="376" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B376" s="5">
         <v>2890013</v>
       </c>
       <c r="C376" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D376" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E376" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F376" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G376" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
       <c r="H376" s="6">
         <v>166</v>
       </c>
@@ -12871,42 +12705,34 @@
     </row>
     <row r="377" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B377" s="5">
         <v>2890013</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F377" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G377" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
       <c r="H377" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I377" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I377" s="4"/>
     </row>
     <row r="378" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B378" s="5">
         <v>2900013</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D378" s="6">
         <v>99</v>
@@ -12929,13 +12755,13 @@
     </row>
     <row r="379" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B379" s="5">
         <v>2900013</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D379" s="6">
         <v>39</v>
@@ -12952,48 +12778,40 @@
       <c r="H379" s="6">
         <v>12</v>
       </c>
-      <c r="I379" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I379" s="4"/>
     </row>
     <row r="380" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B380" s="5">
         <v>2910013</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D380" s="6">
         <v>14</v>
       </c>
-      <c r="E380" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E380" s="4"/>
       <c r="F380" s="6">
         <v>14</v>
       </c>
-      <c r="G380" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G380" s="4"/>
       <c r="H380" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I380" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I380" s="4"/>
     </row>
     <row r="381" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B381" s="5">
         <v>2910013</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D381" s="6">
         <v>22</v>
@@ -13008,21 +12826,19 @@
         <v>56.9</v>
       </c>
       <c r="H381" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I381" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I381" s="4"/>
     </row>
     <row r="382" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B382" s="5">
         <v>2940013</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D382" s="6">
         <v>249</v>
@@ -13045,13 +12861,13 @@
     </row>
     <row r="383" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B383" s="5">
         <v>2940013</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D383" s="6">
         <v>50</v>
@@ -13068,19 +12884,17 @@
       <c r="H383" s="6">
         <v>18</v>
       </c>
-      <c r="I383" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I383" s="4"/>
     </row>
     <row r="384" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B384" s="5">
         <v>2950013</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D384" s="6">
         <v>117</v>
@@ -13095,50 +12909,42 @@
         <v>62.4</v>
       </c>
       <c r="H384" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I384" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I384" s="4"/>
     </row>
     <row r="385" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B385" s="5">
         <v>2950013</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D385" s="6">
         <v>15</v>
       </c>
-      <c r="E385" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E385" s="4"/>
       <c r="F385" s="6">
         <v>15</v>
       </c>
-      <c r="G385" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G385" s="4"/>
       <c r="H385" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I385" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I385" s="4"/>
     </row>
     <row r="386" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B386" s="5">
         <v>2960013</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D386" s="6">
         <v>66</v>
@@ -13153,21 +12959,19 @@
         <v>83.7</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I386" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I386" s="4"/>
     </row>
     <row r="387" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B387" s="5">
         <v>2960013</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D387" s="6">
         <v>36</v>
@@ -13182,21 +12986,19 @@
         <v>90.4</v>
       </c>
       <c r="H387" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I387" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I387" s="4"/>
     </row>
     <row r="388" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B388" s="5">
         <v>2970013</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D388" s="6">
         <v>260</v>
@@ -13219,13 +13021,13 @@
     </row>
     <row r="389" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B389" s="5">
         <v>2970013</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D389" s="6">
         <v>58</v>
@@ -13248,42 +13050,36 @@
     </row>
     <row r="390" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B390" s="5">
         <v>3470015</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D390" s="6">
         <v>17</v>
       </c>
-      <c r="E390" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E390" s="4"/>
       <c r="F390" s="6">
         <v>17</v>
       </c>
-      <c r="G390" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G390" s="4"/>
       <c r="H390" s="6">
         <v>15</v>
       </c>
-      <c r="I390" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I390" s="4"/>
     </row>
     <row r="391" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B391" s="5">
         <v>9000016</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D391" s="6">
         <v>1534</v>
@@ -13306,13 +13102,13 @@
     </row>
     <row r="392" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B392" s="5">
         <v>9000016</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D392" s="6">
         <v>877</v>
@@ -13335,13 +13131,13 @@
     </row>
     <row r="393" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B393" s="5">
         <v>9010022</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D393" s="6">
         <v>271</v>
@@ -13364,13 +13160,13 @@
     </row>
     <row r="394" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B394" s="5">
         <v>9010022</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D394" s="6">
         <v>288</v>
@@ -13393,13 +13189,13 @@
     </row>
     <row r="395" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B395" s="5">
         <v>9020022</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D395" s="6">
         <v>124</v>
@@ -13422,13 +13218,13 @@
     </row>
     <row r="396" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B396" s="5">
         <v>9020022</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D396" s="6">
         <v>103</v>
@@ -13451,13 +13247,13 @@
     </row>
     <row r="397" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B397" s="5">
         <v>9030022</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D397" s="6">
         <v>26</v>
@@ -13480,13 +13276,13 @@
     </row>
     <row r="398" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B398" s="5">
         <v>9030022</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D398" s="6">
         <v>248</v>
